--- a/REVER_DailyTracker_20200618.xlsx
+++ b/REVER_DailyTracker_20200618.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DACDD1E-7CFB-4A80-969B-7F2CAE42D528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="20730" windowHeight="10890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,9 +18,9 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="57">
   <si>
     <t>Task</t>
   </si>
@@ -236,15 +230,21 @@
 uploading success
 2. RPA customization of Saw discounts is work in Progress.</t>
   </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>PO_Confirmation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,7 +443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -495,7 +495,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -689,33 +689,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -736,7 +736,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -746,8 +746,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -759,7 +759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -770,10 +770,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -787,9 +787,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -803,9 +803,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -819,8 +819,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -837,19 +837,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -867,13 +867,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -887,7 +887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -901,7 +901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -909,7 +909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -917,12 +917,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -930,7 +930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -941,7 +941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -952,7 +952,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -963,12 +963,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -979,7 +979,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -990,12 +990,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1027,12 +1027,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1064,12 +1064,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1108,7 +1108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1116,18 +1116,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1159,7 +1159,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1168,46 +1168,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1220,7 +1220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1228,18 +1228,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1271,7 +1271,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1280,46 +1280,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1332,26 +1332,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1374,7 +1374,131 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44000</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1383,7 +1507,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1392,46 +1516,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1443,27 +1567,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
-  <sheetPr codeName="Sheet4"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1486,7 +1610,131 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1495,7 +1743,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1504,46 +1752,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1555,27 +1803,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
-  <sheetPr codeName="Sheet5"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1598,28 +1846,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1628,46 +1864,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1679,27 +1915,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
-  <sheetPr codeName="Sheet6"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1722,7 +1958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1731,7 +1967,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1740,46 +1976,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1791,27 +2027,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
-  <sheetPr codeName="Sheet7"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1834,7 +2070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1843,7 +2079,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1852,270 +2088,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200618.xlsx
+++ b/REVER_DailyTracker_20200618.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11474C3-D1CD-4E2A-A205-E388837028A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="20730" windowHeight="10890" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -19,22 +25,16 @@
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="82">
   <si>
     <t>Task</t>
   </si>
@@ -66,6 +66,9 @@
     <t>% of completion</t>
   </si>
   <si>
+    <t>RPA Dotnet</t>
+  </si>
+  <si>
     <t>[Backend] CRM</t>
   </si>
   <si>
@@ -78,173 +81,216 @@
     <t>Loginpage (Frontend)</t>
   </si>
   <si>
-    <t>1. Datass are fetched from CRM table and displayed the results in dropdownlist dynamically
-2. Customer type dropdownlist has been created using using enum and displayed in right order
-3. Working on onchange events to select all emailid based on customer types.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Visited  customer information from the contact us  page of hayaai website has been recorded in the database using
- PHP and MYQL
-</t>
-  </si>
-  <si>
-    <t>Hayaai website</t>
-  </si>
-  <si>
-    <t>Sending email is in progress</t>
-  </si>
-  <si>
-    <t>data insertion  and email sending are completed, whereas we have tested email sending using gmail.com for contacts.html.
-We are waiting for actual email settings for hayaai site.</t>
-  </si>
-  <si>
-    <t>Email validation and contact number validation has been completed before submiting fields values to the database.</t>
-  </si>
-  <si>
-    <t>RPA_Sale/[Front End]  Full app keyword search</t>
-  </si>
-  <si>
-    <t>Analysing the all tables to fetch all records and keep it as list and obtaining the keyword by filtering from the list and converting 
-the result with paging and pagelisted concept in MVC</t>
-  </si>
-  <si>
-    <t>Searching string in all tables from the entire database has been completed , whereas UI design and development are pending</t>
-  </si>
-  <si>
-    <t>Searching in all tables and fetching the results and displaying the results at bottom of the master pages, whereas other activities
- like styling and crossref link or sublink tasks are pending.</t>
-  </si>
-  <si>
-    <t>Searching results are coming in right order along with query text, whereas a small design issue is pending and also no data found to be implemented.</t>
-  </si>
-  <si>
-    <t>No data found has been implemented if no records found and etc.
-Attended in RPASale_dev deployeement task</t>
-  </si>
-  <si>
-    <t>Today, I was engaged in rpa selenium tasks for DRS, GRS, and GRD
-DRS was done,
-GRS, till dowload portion is over and whereas, upload is pending as issue in converting xls to csv.</t>
-  </si>
-  <si>
-    <t>Jiffy_to_selenium</t>
-  </si>
-  <si>
-    <t>Conversion from jiffy to selenium for the tasks of Goods Receiving Summary and Goods Receiving details are completed,
-whereas the conversion of warranty is WIP</t>
-  </si>
-  <si>
-    <t>Leave on 22-05-2020</t>
-  </si>
-  <si>
-    <t>RPA Customization</t>
-  </si>
-  <si>
-    <t>Conversion from JIFFY to selenium for the tasks of DRS, GRS and GRD are completed, CSV conversion for warranty is in Pending.</t>
-  </si>
-  <si>
-    <t>Customization of RPA tasks named as GRS and GRD are completed,  no data found for warranty and csv header/contents  validations are in progress. Also DRS no data found is also pending.</t>
-  </si>
-  <si>
-    <t>DRS Daily, DRS Weekly and DRS Monthly are completed with download/upload and no data found.
-Warranty csv file is having issue and hence it has been shared to Mohan san.</t>
-  </si>
-  <si>
-    <t>Warranty CSV file is having uploading issue.</t>
-  </si>
-  <si>
-    <t>POC confirmation task  has been implemented at new bot, and it will work for download and upload success</t>
-  </si>
-  <si>
-    <t>1. Fine tuning with DRS, GRS and GRD are done.
-2. POC task has been implementation done with download/upload/nodata found/failed to download steps are tested and 
-3. OtherSales(extended warranty ) implementation is going on with PO values/withou PO values to get UnitPrice along with download and upload steps are in Progress.
-4. Mr Mohan san has asked to run GRS and GRD for all centers to know the success and issue while running continueously.</t>
-  </si>
-  <si>
-    <t>Tested for all services dynamically for DRS, GRS and GRD are done, In GRDetails a file moving issue after uploading.</t>
-  </si>
-  <si>
-    <t>POC Task tested and validated for downloading, uploading and for no data found with email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. POC Tasks for all centers has been developed  to download and upload
-2. GRS and GRDetails tasks are completed.
-3. CommunicationBoard task has been tested for SSC1, as could not find notification, we could not complete the test for all centers
-</t>
-  </si>
-  <si>
-    <t>1.POC tasks tested for all centeres excluding SSC10 individually at new bot
-2. Anchor element not found at JIFFY for DRS and Warranty daily tasks has been solved and it is running smoothly to download and
-upload.</t>
-  </si>
-  <si>
-    <t>POC Tasks are completed and tested till SSC6 and are going smooth for download and uploaded for rpa customization tasks,
-POC Taks are placed at scheduler
-Also developed code to convert purchase summary xls to csv file and uploaded successful.</t>
-  </si>
-  <si>
-    <t>Invalid data Issue during upload at SSC10 of Warranty task has been solved and updated script file also shared to Mohan san.</t>
-  </si>
-  <si>
-    <t>Dowload and upload for POC task has been tested from SSC1 to SSC10 exclusing SSC5 and SSC9 and going smooth and 
-placed in scheduler.(newbot)</t>
-  </si>
-  <si>
-    <t>Hayaai-Website</t>
-  </si>
-  <si>
-    <t>Learning and reviewing the Hayaai-Website</t>
-  </si>
-  <si>
-    <t>Learning and reviewing the Hayaai-Website in Laravel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Supporting to RPA customization for Purchase details task of xls to csv conversion and uploading the same at MVS.
-2. Customizing the Monthly OtherSales task is in Progress.</t>
-  </si>
-  <si>
-    <t>1. Supported to laravel installation for web design</t>
-  </si>
-  <si>
-    <t>2. Customizing the Monthly Otherssales task is in Progress ( upto fetching data from the extended warranty is over,
-3. Whereas With PO task and Without PO task are pending and it is connected task of OtherSales</t>
-  </si>
-  <si>
-    <t>1. With PO task and Without PO task are done and it is connected task of OtherSales
-2.OtherSales tasks are completed for SSC1, whereas it has to tested for all SSC  as data fetching method is varying from center to centers.
-3. Learning wordpress and is going.</t>
-  </si>
-  <si>
-    <t>GSS website</t>
-  </si>
-  <si>
-    <t>Learning and Supporting GSS website editing  in wordpress</t>
-  </si>
-  <si>
-    <t>Correction received for taks DRS-Weekly for all SSC and POC tasks for uploading issue at SSC10 and both corrections were rectified.
- Supporting to GSS website page editing.</t>
-  </si>
-  <si>
-    <t>1.The Othersales extended warranty  tasks has been completed and tested for SSCs to fetch data and converting csv and 
-uploading success
-2. RPA customization of Saw discounts is work in Progress.</t>
-  </si>
-  <si>
-    <t>QMVAR</t>
-  </si>
-  <si>
-    <t>PO_Confirmation</t>
+    <t>Tables are created at RPA Sale database, whereas relationship is penidng, after discussing with Mr Bharathi san, it will be over,
+if any changes or modification can be done.</t>
+  </si>
+  <si>
+    <t>29/04/2020</t>
+  </si>
+  <si>
+    <t>Rever B2C</t>
+  </si>
+  <si>
+    <t>IF full flow with technician tracking integration</t>
+  </si>
+  <si>
+    <t>APK sent.</t>
+  </si>
+  <si>
+    <t>MujiStore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
+  </si>
+  <si>
+    <t>Hayaai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website design- Business page </t>
+  </si>
+  <si>
+    <t>Website design- Contact page &amp; Business page popup</t>
+  </si>
+  <si>
+    <t>DOTNET APP</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Muji Multi Language(Resource Changing)</t>
+  </si>
+  <si>
+    <t>Hit Counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hit Counter, UserPresentation </t>
+  </si>
+  <si>
+    <t>UserPresentation Chages Completed and design Chages</t>
+  </si>
+  <si>
+    <t>Retrive Values for DB  and Ui Design</t>
+  </si>
+  <si>
+    <t>tblDeploySchedule, tblDeployStatu, SubnetController, DeploySchedulesController, FoldersController, FormatsController, HomeController, StoreGroupFoldersController, StoreGroupsController, StreamServersController, StreamServerSubnetsController, VideoFilesController, StreamServerFormats</t>
+  </si>
+  <si>
+    <t>tblFolder, tblFolder, tblStreamServer, tblStreamServerSubnet, DeployLogs, DeploySchedules, DeployStatus, Formats, Shared, StoreMst, StoreSubnets, StreamServers, StreamServerSubnets, Subnets, VideoFiles</t>
+  </si>
+  <si>
+    <t>Hit Counter, SocialMedia</t>
+  </si>
+  <si>
+    <t>Retrive table Values for DB  and Ui Design</t>
+  </si>
+  <si>
+    <t>Hit Counter Design Changes Completed, SocialMedia Working</t>
+  </si>
+  <si>
+    <t>CountDrs Testing</t>
+  </si>
+  <si>
+    <t>Matching Values for all centers ssc1-ssc8</t>
+  </si>
+  <si>
+    <t>Mobile Srevice Centers , SocialMedia</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>Insert table values</t>
+  </si>
+  <si>
+    <t>retrive db and css design</t>
+  </si>
+  <si>
+    <t>GridView Show the table, Delete</t>
+  </si>
+  <si>
+    <t>Social Media, Count Drs Verified</t>
+  </si>
+  <si>
+    <t>PowerPoint Presentation design and dynamic download</t>
+  </si>
+  <si>
+    <t>Testing RPA_Sales Application</t>
+  </si>
+  <si>
+    <t>Login Page, User Management, Video Management, PPT Management</t>
+  </si>
+  <si>
+    <t>RPA_Sales Application (Language Changing), GSPN Password Changing</t>
+  </si>
+  <si>
+    <t>Login Page, User Management, CRM, SocialMedia, Task Management, Video Management, PPT Management, Dashboard, RPA Sample Reports</t>
+  </si>
+  <si>
+    <t>QMVQR, DOTNET APP</t>
+  </si>
+  <si>
+    <t>PO_Confirmaion data check to verification Completed, RPA_Sales language Resource changing</t>
+  </si>
+  <si>
+    <t>Count Drs data check complted</t>
+  </si>
+  <si>
+    <t>RPA_Sales(CRUD Operations)</t>
+  </si>
+  <si>
+    <t>GridView Show the table, Insert the values</t>
+  </si>
+  <si>
+    <t>QMVAR PO_Confirmaion, RPA_Sales(Hold)</t>
+  </si>
+  <si>
+    <t>Edit, Delete the Records Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVQR, </t>
+  </si>
+  <si>
+    <t>RPASales LAnguage (Resource Changing)</t>
+  </si>
+  <si>
+    <t>Client Menu Changes Completed</t>
+  </si>
+  <si>
+    <t>Admin Menu Changes Completed</t>
+  </si>
+  <si>
+    <t>SSC10 Adding RPA tasks</t>
+  </si>
+  <si>
+    <t>DRS, Warranty, Purches Order (Summary, Details), Good Receiving (Summary, Details)</t>
+  </si>
+  <si>
+    <t>RPASales Language (Testing and Designing)</t>
+  </si>
+  <si>
+    <t>RPA Application</t>
+  </si>
+  <si>
+    <t>SSC10 Adding RPA tasks, RPA_Sales integration japanease code</t>
+  </si>
+  <si>
+    <t>Monthly Tasks, 10 days Completed</t>
+  </si>
+  <si>
+    <t>Adding Scheduler ssc10</t>
+  </si>
+  <si>
+    <t>SSC10 Adding Scneduler</t>
+  </si>
+  <si>
+    <t>DOTNET APP, RPA Applicatoin</t>
+  </si>
+  <si>
+    <t>GSS Website design</t>
+  </si>
+  <si>
+    <t>GSS Website design(Hold)</t>
+  </si>
+  <si>
+    <t>Muji Store</t>
+  </si>
+  <si>
+    <t>Robo Copy Exist Code, Layout page,  RoboCopyExistController</t>
+  </si>
+  <si>
+    <t>Muji Multi Language(Resource Changing), Design Changes</t>
+  </si>
+  <si>
+    <t>Rpa Solution</t>
+  </si>
+  <si>
+    <t>GSS Website design, Muji Design Changes</t>
+  </si>
+  <si>
+    <t>Div Images align and Text design(Store Menu)</t>
+  </si>
+  <si>
+    <t>Div Images align and Text design(Our team Menu)</t>
+  </si>
+  <si>
+    <t>Video Mgt</t>
+  </si>
+  <si>
+    <t>June</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,8 +313,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,8 +367,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -342,11 +410,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -367,25 +449,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,7 +552,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -495,7 +604,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -689,30 +798,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -736,428 +844,28 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="D4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="D5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="D9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4">
-        <v>90</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="D12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4">
-        <v>95</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="D15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:7">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>30</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30">
-      <c r="D25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>80</v>
-      </c>
-      <c r="F25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="30">
-      <c r="D28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28">
-        <v>100</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="45">
-      <c r="D32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" ht="45">
-      <c r="D36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7">
-      <c r="G38" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7">
-      <c r="D40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7" ht="30">
-      <c r="D44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="4:7" ht="30">
-      <c r="D47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="4:7">
-      <c r="D50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7">
-      <c r="G51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="4:7" ht="105">
-      <c r="D54" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="4:7">
-      <c r="D57" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="4:7">
-      <c r="G58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="4:7" ht="75">
-      <c r="D60" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="4:7" ht="60">
-      <c r="D64" t="s">
-        <v>30</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="4:7" ht="60">
-      <c r="D67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G67" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="4:7">
-      <c r="D70" t="s">
-        <v>30</v>
-      </c>
-      <c r="G70" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="4:7" ht="45">
-      <c r="G71" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" spans="4:7">
-      <c r="D73" t="s">
-        <v>44</v>
-      </c>
-      <c r="G73" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="4:7">
-      <c r="D76" t="s">
-        <v>44</v>
-      </c>
-      <c r="G76" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="4:7" ht="45">
-      <c r="D79" t="s">
-        <v>30</v>
-      </c>
-      <c r="G79" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="4:7">
-      <c r="D83" t="s">
-        <v>30</v>
-      </c>
-      <c r="G83" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="4:7" ht="30">
-      <c r="G84" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="4:7" ht="60">
-      <c r="D88" t="s">
-        <v>30</v>
-      </c>
-      <c r="G88" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="4:7">
-      <c r="D93" t="s">
-        <v>51</v>
-      </c>
-      <c r="G93" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="97" spans="4:7" ht="45">
-      <c r="D97" t="s">
-        <v>30</v>
-      </c>
-      <c r="G97" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="100" spans="4:7" ht="60">
-      <c r="D100" t="s">
-        <v>30</v>
-      </c>
-      <c r="G100" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -1210,7 +918,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1219,24 +927,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet2"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1263,13 +970,27 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -1322,7 +1043,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1331,24 +1052,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet3"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1374,34 +1094,46 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>44000</v>
+        <v>43950</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="E2" s="7">
-        <v>0.95</v>
+        <v>0.3</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+    <row r="3" spans="1:7" ht="15.6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43951</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1446,7 +1178,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1455,24 +1187,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet4"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1558,7 +1289,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1567,24 +1298,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet5"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1611,24 +1341,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1682,7 +1400,162 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>43955</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22">
+        <v>43956</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1692,23 +1565,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1794,7 +1666,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1804,23 +1676,899 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43951</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>43955</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22">
+        <v>43955</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22">
+        <v>43956</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22">
+        <v>43957</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7" s="24">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22">
+        <v>43958</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="24">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22">
+        <v>43959</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="24">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22">
+        <v>43962</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="24">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22">
+        <v>43963</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="24">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22">
+        <v>43964</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="24">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22">
+        <v>43965</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="24">
+        <v>11</v>
+      </c>
+      <c r="B13" s="22">
+        <v>43966</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="24">
+        <v>12</v>
+      </c>
+      <c r="B14" s="22">
+        <v>43969</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="24">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22">
+        <v>43970</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="A16" s="24">
+        <v>14</v>
+      </c>
+      <c r="B16" s="22">
+        <v>43971</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1">
+      <c r="A17" s="24">
+        <v>15</v>
+      </c>
+      <c r="B17" s="22">
+        <v>43972</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="28">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="24">
+        <v>16</v>
+      </c>
+      <c r="B18" s="22">
+        <v>43973</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1">
+      <c r="A19" s="24">
+        <v>17</v>
+      </c>
+      <c r="B19" s="22">
+        <v>43977</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1">
+      <c r="A20" s="24">
+        <v>18</v>
+      </c>
+      <c r="B20" s="22">
+        <v>43978</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="24">
+        <v>19</v>
+      </c>
+      <c r="B21" s="22">
+        <v>43979</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="24">
+        <v>20</v>
+      </c>
+      <c r="B22" s="22">
+        <v>43980</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="25">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="29">
+        <v>21</v>
+      </c>
+      <c r="B24" s="22">
+        <v>43983</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="29">
+        <v>22</v>
+      </c>
+      <c r="B25" s="22">
+        <v>43984</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="29">
+        <v>23</v>
+      </c>
+      <c r="B26" s="22">
+        <v>43985</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="29">
+        <v>24</v>
+      </c>
+      <c r="B27" s="22">
+        <v>43986</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="28">
+        <v>1</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="29">
+        <v>25</v>
+      </c>
+      <c r="B28" s="22">
+        <v>43987</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="22">
+        <v>43990</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="29">
+        <v>27</v>
+      </c>
+      <c r="B30" s="22">
+        <v>43991</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="28">
+        <v>1</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="29">
+        <v>28</v>
+      </c>
+      <c r="B31" s="22">
+        <v>43992</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="28">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="29">
+        <v>29</v>
+      </c>
+      <c r="B32" s="22">
+        <v>43993</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="29">
+        <v>30</v>
+      </c>
+      <c r="B33" s="22">
+        <v>43994</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="29">
+        <v>31</v>
+      </c>
+      <c r="B34" s="22">
+        <v>43997</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="29">
+        <v>32</v>
+      </c>
+      <c r="B35" s="22">
+        <v>43998</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="29">
+        <v>33</v>
+      </c>
+      <c r="B36" s="22">
+        <v>43999</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="29">
+        <v>34</v>
+      </c>
+      <c r="B37" s="22">
+        <v>44000</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="28">
+        <v>1</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="C45" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" s="8"/>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="B47" s="9"/>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="B48" s="10"/>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="11"/>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1906,7 +2654,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1915,24 +2663,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet8"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2018,119 +2765,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_20200618.xlsx
+++ b/REVER_DailyTracker_20200618.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11474C3-D1CD-4E2A-A205-E388837028A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230908D4-AD67-4384-BC8C-9C16D4A6C0AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="86">
   <si>
     <t>Task</t>
   </si>
@@ -100,9 +100,6 @@
     <t>MujiStore</t>
   </si>
   <si>
-    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
-  </si>
-  <si>
     <t>Hayaai</t>
   </si>
   <si>
@@ -281,6 +278,21 @@
   </si>
   <si>
     <t>June</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>Working Sonia Project</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>System Windows Update</t>
+  </si>
+  <si>
+    <t>Prepare Language Information</t>
   </si>
 </sst>
 </file>
@@ -326,7 +338,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -464,9 +475,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -491,6 +499,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,15 +823,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -844,7 +855,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -935,15 +946,15 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1056,19 +1067,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1094,46 +1105,179 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>43950</v>
+      <c r="B2" s="21">
+        <v>44000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>43951</v>
+      <c r="B3" s="21">
+        <v>44000</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="D3" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="15.75">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21">
+        <v>44000</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="15.75">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21">
+        <v>44000</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1187,23 +1331,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1298,23 +1442,178 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A2" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>43955</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="21">
+        <v>43956</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1409,23 +1708,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G26"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1456,34 +1755,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>43951</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>43955</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
+      <c r="C3" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -1497,64 +1798,784 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
+        <v>43955</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21">
         <v>43956</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21">
+        <v>43957</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7" s="23">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21">
+        <v>43958</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="23">
+        <v>6</v>
+      </c>
+      <c r="B8" s="21">
+        <v>43959</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="23">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21">
+        <v>43962</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="23">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21">
+        <v>43963</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="23">
+        <v>9</v>
+      </c>
+      <c r="B11" s="21">
+        <v>43964</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="23">
+        <v>10</v>
+      </c>
+      <c r="B12" s="21">
+        <v>43965</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="27">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="23">
+        <v>11</v>
+      </c>
+      <c r="B13" s="21">
+        <v>43966</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="23">
+        <v>12</v>
+      </c>
+      <c r="B14" s="21">
+        <v>43969</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="23">
+        <v>13</v>
+      </c>
+      <c r="B15" s="21">
+        <v>43970</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="A16" s="23">
+        <v>14</v>
+      </c>
+      <c r="B16" s="21">
+        <v>43971</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="27">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1">
+      <c r="A17" s="23">
+        <v>15</v>
+      </c>
+      <c r="B17" s="21">
+        <v>43972</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="27">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="23">
+        <v>16</v>
+      </c>
+      <c r="B18" s="21">
+        <v>43973</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1">
+      <c r="A19" s="23">
+        <v>17</v>
+      </c>
+      <c r="B19" s="21">
+        <v>43977</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="27">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1">
+      <c r="A20" s="23">
+        <v>18</v>
+      </c>
+      <c r="B20" s="21">
+        <v>43978</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="23">
+        <v>19</v>
+      </c>
+      <c r="B21" s="21">
+        <v>43979</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="23">
+        <v>20</v>
+      </c>
+      <c r="B22" s="21">
+        <v>43980</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="24">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="28">
+        <v>21</v>
+      </c>
+      <c r="B24" s="21">
+        <v>43983</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="28">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B25" s="21">
+        <v>43984</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
+      <c r="D25" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="24">
+        <v>1</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="28">
+        <v>23</v>
+      </c>
+      <c r="B26" s="21">
+        <v>43985</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="28">
+        <v>24</v>
+      </c>
+      <c r="B27" s="21">
+        <v>43986</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="21">
+        <v>43987</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="28">
+        <v>26</v>
+      </c>
+      <c r="B29" s="21">
+        <v>43990</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="28">
+        <v>27</v>
+      </c>
+      <c r="B30" s="21">
+        <v>43991</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="27">
+        <v>1</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="28">
+        <v>28</v>
+      </c>
+      <c r="B31" s="21">
+        <v>43992</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="27">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="28">
+        <v>29</v>
+      </c>
+      <c r="B32" s="21">
+        <v>43993</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="28">
+        <v>30</v>
+      </c>
+      <c r="B33" s="21">
+        <v>43994</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="28">
+        <v>31</v>
+      </c>
+      <c r="B34" s="21">
+        <v>43997</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="28">
+        <v>32</v>
+      </c>
+      <c r="B35" s="21">
+        <v>43998</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="28">
+        <v>33</v>
+      </c>
+      <c r="B36" s="21">
+        <v>43999</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="28">
+        <v>34</v>
+      </c>
+      <c r="B37" s="21">
+        <v>44000</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="27">
+        <v>1</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="C45" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" s="8"/>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="B47" s="9"/>
+      <c r="C47" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
+    <row r="48" spans="1:7">
+      <c r="B48" s="10"/>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="11"/>
+      <c r="C49" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1564,23 +2585,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1675,900 +2696,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G49"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="22">
-        <v>43956</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="22">
-        <v>43957</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="24">
-        <v>5</v>
-      </c>
-      <c r="B7" s="22">
-        <v>43958</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="25">
-        <v>1</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="24">
-        <v>6</v>
-      </c>
-      <c r="B8" s="22">
-        <v>43959</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="24">
-        <v>7</v>
-      </c>
-      <c r="B9" s="22">
-        <v>43962</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="24">
-        <v>8</v>
-      </c>
-      <c r="B10" s="22">
-        <v>43963</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="24">
-        <v>9</v>
-      </c>
-      <c r="B11" s="22">
-        <v>43964</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="28">
-        <v>0.6</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="24">
-        <v>10</v>
-      </c>
-      <c r="B12" s="22">
-        <v>43965</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="28">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="24">
-        <v>11</v>
-      </c>
-      <c r="B13" s="22">
-        <v>43966</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="24">
-        <v>12</v>
-      </c>
-      <c r="B14" s="22">
-        <v>43969</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="A15" s="24">
-        <v>13</v>
-      </c>
-      <c r="B15" s="22">
-        <v>43970</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="A16" s="24">
-        <v>14</v>
-      </c>
-      <c r="B16" s="22">
-        <v>43971</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="28">
-        <v>1</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1">
-      <c r="A17" s="24">
-        <v>15</v>
-      </c>
-      <c r="B17" s="22">
-        <v>43972</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="28">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18" s="24">
-        <v>16</v>
-      </c>
-      <c r="B18" s="22">
-        <v>43973</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1">
-      <c r="A19" s="24">
-        <v>17</v>
-      </c>
-      <c r="B19" s="22">
-        <v>43977</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="28">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1">
-      <c r="A20" s="24">
-        <v>18</v>
-      </c>
-      <c r="B20" s="22">
-        <v>43978</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="24">
-        <v>19</v>
-      </c>
-      <c r="B21" s="22">
-        <v>43979</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="24">
-        <v>20</v>
-      </c>
-      <c r="B22" s="22">
-        <v>43980</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="25">
-        <v>1</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="29">
-        <v>21</v>
-      </c>
-      <c r="B24" s="22">
-        <v>43983</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="29">
-        <v>22</v>
-      </c>
-      <c r="B25" s="22">
-        <v>43984</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="29">
-        <v>23</v>
-      </c>
-      <c r="B26" s="22">
-        <v>43985</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="29">
-        <v>24</v>
-      </c>
-      <c r="B27" s="22">
-        <v>43986</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="28">
-        <v>1</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="29">
-        <v>25</v>
-      </c>
-      <c r="B28" s="22">
-        <v>43987</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="29">
-        <v>26</v>
-      </c>
-      <c r="B29" s="22">
-        <v>43990</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="28">
-        <v>0.9</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="29">
-        <v>27</v>
-      </c>
-      <c r="B30" s="22">
-        <v>43991</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="28">
-        <v>1</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="29">
-        <v>28</v>
-      </c>
-      <c r="B31" s="22">
-        <v>43992</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="28">
-        <v>1</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="29">
-        <v>29</v>
-      </c>
-      <c r="B32" s="22">
-        <v>43993</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="29">
-        <v>30</v>
-      </c>
-      <c r="B33" s="22">
-        <v>43994</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="29">
-        <v>31</v>
-      </c>
-      <c r="B34" s="22">
-        <v>43997</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="28">
-        <v>0.9</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="29">
-        <v>32</v>
-      </c>
-      <c r="B35" s="22">
-        <v>43998</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="29">
-        <v>33</v>
-      </c>
-      <c r="B36" s="22">
-        <v>43999</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="29">
-        <v>34</v>
-      </c>
-      <c r="B37" s="22">
-        <v>44000</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="28">
-        <v>1</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="C45" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="B46" s="8"/>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="B47" s="9"/>
-      <c r="C47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="B48" s="10"/>
-      <c r="C48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="11"/>
-      <c r="C49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2661,115 +2805,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/REVER_DailyTracker_20200618.xlsx
+++ b/REVER_DailyTracker_20200618.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0378381B-261B-415A-9FFD-2D5600792537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="16">
   <si>
     <t>No</t>
   </si>
@@ -67,19 +73,21 @@
   <si>
     <t>Regression testing on Quickgarage website</t>
   </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>PartsI/O</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,155 +121,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,7 +140,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,188 +162,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -528,252 +212,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -783,7 +225,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -800,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -812,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -824,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="39" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -833,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -846,62 +288,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="標準 2" xfId="39"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1159,27 +557,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="104.714285714286" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1203,7 +601,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" s="25" customFormat="1" ht="28.9" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" s="25" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="26"/>
       <c r="B2" s="27"/>
       <c r="C2" s="26"/>
@@ -1221,23 +619,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1268,29 +666,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="51.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1356,7 +752,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    <row r="4" spans="1:7" s="1" customFormat="1">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="15"/>
@@ -1365,21 +761,21 @@
       <c r="F4" s="18"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="21" spans="3:3">
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="21" spans="2:3">
       <c r="C21" s="9" t="s">
         <v>5</v>
       </c>
@@ -1410,29 +806,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1476,23 +870,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1523,29 +917,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1571,7 +963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1582,7 +974,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1593,23 +985,23 @@
       <c r="F3" s="7"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1640,29 +1032,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1706,23 +1096,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1753,29 +1143,246 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="10"/>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="11"/>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="12"/>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="13"/>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1"/>
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="10"/>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="11"/>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="12"/>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="13"/>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1819,23 +1426,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1866,131 +1473,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1"/>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="19" spans="3:3">
-      <c r="C19" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="10"/>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="11"/>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="12"/>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="13"/>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2034,23 +1537,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2081,29 +1584,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2147,23 +1648,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2194,29 +1695,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2260,23 +1759,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2307,120 +1806,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
-      <c r="C22" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="10"/>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="11"/>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="12"/>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="13"/>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>